--- a/AD010_内部定義/BB030_テーブル設計書/BB030010_種類.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030010_種類.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1518145-C1BB-4D5B-8E3F-41815B9E5FA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDC3A3-BF1E-4567-A84E-55B889AC48F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="6000" windowWidth="21348" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7668" yWindow="5844" windowWidth="35520" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$H$11</definedName>
     <definedName name="論理型">型!$B$2:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -900,6 +900,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -946,6 +947,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <f t="shared" ref="A3:A11" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -992,6 +994,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1016,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J11" si="2">",   "&amp;C4</f>
+        <f t="shared" ref="J4:J11" si="3">",   "&amp;C4</f>
         <v>,   end_date</v>
       </c>
       <c r="K4" t="str">
@@ -1038,6 +1041,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1062,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   locale_id</v>
       </c>
       <c r="K5" t="str">
@@ -1084,6 +1088,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1106,7 +1111,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   creator</v>
       </c>
       <c r="K6" t="str">
@@ -1128,6 +1133,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1152,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   created_date</v>
       </c>
       <c r="K7" t="str">
@@ -1174,6 +1180,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1196,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   updater</v>
       </c>
       <c r="K8" t="str">
@@ -1218,6 +1225,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1242,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   update_date</v>
       </c>
       <c r="K9" t="str">
@@ -1264,6 +1272,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1288,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   note</v>
       </c>
       <c r="K10" t="str">
@@ -1310,6 +1319,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1334,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,   name</v>
       </c>
       <c r="K11" t="str">
